--- a/artwork.xlsx
+++ b/artwork.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\playwright-node-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C144D9CC-0880-4A90-A599-54605C78790D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82479F85-F199-4C77-A100-E8376B51CED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{220749C7-60A0-41AE-810A-5986427064FF}"/>
+    <workbookView xWindow="0" yWindow="1500" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="9" xr2:uid="{220749C7-60A0-41AE-810A-5986427064FF}"/>
   </bookViews>
   <sheets>
     <sheet name="artwork standard BC" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="artwork foil BC" sheetId="6" r:id="rId6"/>
     <sheet name="leaf BC" sheetId="7" r:id="rId7"/>
     <sheet name="linen BC" sheetId="8" r:id="rId8"/>
+    <sheet name="fold over BC" sheetId="9" r:id="rId9"/>
+    <sheet name="kraft BC" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2499" uniqueCount="30">
   <si>
     <t>Front Side Only (4/0)</t>
   </si>
@@ -126,6 +128,12 @@
   </si>
   <si>
     <t>16 to 18Pt. thick with Soft Touch Coating</t>
+  </si>
+  <si>
+    <t>Both Sides (4/4)</t>
+  </si>
+  <si>
+    <t>Card Stock: 18pt Brown Kraft</t>
   </si>
 </sst>
 </file>
@@ -479,7 +487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E400822E-4AF5-4174-856E-F4498BA3F428}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
@@ -2004,6 +2012,1662 @@
       <c r="K48">
         <f t="shared" si="2"/>
         <v>86.399999999999977</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D39235E-E6E7-414B-B756-4C75AB89B174}">
+  <dimension ref="A1:L48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="40.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>50</v>
+      </c>
+      <c r="J1">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="K1">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="L1">
+        <f>J1-K1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2">
+        <v>19.88</v>
+      </c>
+      <c r="K2">
+        <v>19.88</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:L14" si="0">J2-K2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>250</v>
+      </c>
+      <c r="J3">
+        <v>26.45</v>
+      </c>
+      <c r="K3">
+        <v>26.45</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>500</v>
+      </c>
+      <c r="J4">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="K4">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>1000</v>
+      </c>
+      <c r="J5">
+        <v>58.1</v>
+      </c>
+      <c r="K5">
+        <v>58.1</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>1500</v>
+      </c>
+      <c r="J6">
+        <v>81.86</v>
+      </c>
+      <c r="K6">
+        <v>81.86</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>2000</v>
+      </c>
+      <c r="J7">
+        <v>105.04</v>
+      </c>
+      <c r="K7">
+        <v>105.04</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>2500</v>
+      </c>
+      <c r="J8">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="K8">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>5000</v>
+      </c>
+      <c r="J9">
+        <v>247.89</v>
+      </c>
+      <c r="K9">
+        <v>247.89</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>6000</v>
+      </c>
+      <c r="J10">
+        <v>287.31</v>
+      </c>
+      <c r="K10">
+        <v>287.31</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>7000</v>
+      </c>
+      <c r="J11">
+        <v>333.96</v>
+      </c>
+      <c r="K11">
+        <v>333.96</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>8000</v>
+      </c>
+      <c r="J12">
+        <v>380.63</v>
+      </c>
+      <c r="K12">
+        <v>380.63</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>9000</v>
+      </c>
+      <c r="J13">
+        <v>427.28</v>
+      </c>
+      <c r="K13">
+        <v>427.28</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>10000</v>
+      </c>
+      <c r="J14">
+        <v>459.43</v>
+      </c>
+      <c r="K14">
+        <v>459.43</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18">
+        <v>50</v>
+      </c>
+      <c r="J18">
+        <v>59.06</v>
+      </c>
+      <c r="K18">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="L18">
+        <f>J18-K18</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>100</v>
+      </c>
+      <c r="J19">
+        <v>61.88</v>
+      </c>
+      <c r="K19">
+        <v>19.88</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ref="L19:L31" si="1">J19-K19</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <v>250</v>
+      </c>
+      <c r="J20">
+        <v>68.45</v>
+      </c>
+      <c r="K20">
+        <v>26.45</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21">
+        <v>500</v>
+      </c>
+      <c r="J21">
+        <v>81.02</v>
+      </c>
+      <c r="K21">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>41.999999999999993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>1000</v>
+      </c>
+      <c r="J22">
+        <v>100.1</v>
+      </c>
+      <c r="K22">
+        <v>58.1</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>41.999999999999993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <v>1500</v>
+      </c>
+      <c r="J23">
+        <v>123.86</v>
+      </c>
+      <c r="K23">
+        <v>81.86</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24">
+        <v>2000</v>
+      </c>
+      <c r="J24">
+        <v>147.04</v>
+      </c>
+      <c r="K24">
+        <v>105.04</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>41.999999999999986</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25">
+        <v>2500</v>
+      </c>
+      <c r="J25">
+        <v>171.2</v>
+      </c>
+      <c r="K25">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26">
+        <v>5000</v>
+      </c>
+      <c r="J26">
+        <v>289.89</v>
+      </c>
+      <c r="K26">
+        <v>247.89</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27">
+        <v>6000</v>
+      </c>
+      <c r="J27">
+        <v>329.31</v>
+      </c>
+      <c r="K27">
+        <v>287.31</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28">
+        <v>7000</v>
+      </c>
+      <c r="J28">
+        <v>375.96</v>
+      </c>
+      <c r="K28">
+        <v>333.96</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29">
+        <v>8000</v>
+      </c>
+      <c r="J29">
+        <v>422.63</v>
+      </c>
+      <c r="K29">
+        <v>380.63</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <v>9000</v>
+      </c>
+      <c r="J30">
+        <v>469.28</v>
+      </c>
+      <c r="K30">
+        <v>427.28</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31">
+        <v>10000</v>
+      </c>
+      <c r="J31">
+        <v>501.43</v>
+      </c>
+      <c r="K31">
+        <v>459.43</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35">
+        <v>50</v>
+      </c>
+      <c r="J35">
+        <v>101.06</v>
+      </c>
+      <c r="K35">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="L35">
+        <f>J35-K35</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36">
+        <v>100</v>
+      </c>
+      <c r="J36">
+        <v>103.88</v>
+      </c>
+      <c r="K36">
+        <v>19.88</v>
+      </c>
+      <c r="L36">
+        <f t="shared" ref="L36:L48" si="2">J36-K36</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37">
+        <v>250</v>
+      </c>
+      <c r="J37">
+        <v>110.45</v>
+      </c>
+      <c r="K37">
+        <v>26.45</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38">
+        <v>500</v>
+      </c>
+      <c r="J38">
+        <v>123.02</v>
+      </c>
+      <c r="K38">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39">
+        <v>1000</v>
+      </c>
+      <c r="J39">
+        <v>142.1</v>
+      </c>
+      <c r="K39">
+        <v>58.1</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" t="s">
+        <v>6</v>
+      </c>
+      <c r="I40">
+        <v>1500</v>
+      </c>
+      <c r="J40">
+        <v>165.86</v>
+      </c>
+      <c r="K40">
+        <v>81.86</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="2"/>
+        <v>84.000000000000014</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41">
+        <v>2000</v>
+      </c>
+      <c r="J41">
+        <v>189.04</v>
+      </c>
+      <c r="K41">
+        <v>105.04</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="2"/>
+        <v>83.999999999999986</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42">
+        <v>2500</v>
+      </c>
+      <c r="J42">
+        <v>213.2</v>
+      </c>
+      <c r="K42">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" t="s">
+        <v>6</v>
+      </c>
+      <c r="I43">
+        <v>5000</v>
+      </c>
+      <c r="J43">
+        <v>331.89</v>
+      </c>
+      <c r="K43">
+        <v>247.89</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" t="s">
+        <v>6</v>
+      </c>
+      <c r="I44">
+        <v>6000</v>
+      </c>
+      <c r="J44">
+        <v>371.31</v>
+      </c>
+      <c r="K44">
+        <v>287.31</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45">
+        <v>7000</v>
+      </c>
+      <c r="J45">
+        <v>417.96</v>
+      </c>
+      <c r="K45">
+        <v>333.96</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" t="s">
+        <v>6</v>
+      </c>
+      <c r="I46">
+        <v>8000</v>
+      </c>
+      <c r="J46">
+        <v>464.63</v>
+      </c>
+      <c r="K46">
+        <v>380.63</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" t="s">
+        <v>6</v>
+      </c>
+      <c r="I47">
+        <v>9000</v>
+      </c>
+      <c r="J47">
+        <v>511.28</v>
+      </c>
+      <c r="K47">
+        <v>427.28</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" t="s">
+        <v>6</v>
+      </c>
+      <c r="I48">
+        <v>10000</v>
+      </c>
+      <c r="J48">
+        <v>543.42999999999995</v>
+      </c>
+      <c r="K48">
+        <v>459.43</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="2"/>
+        <v>83.999999999999943</v>
       </c>
     </row>
   </sheetData>
@@ -10258,4 +11922,953 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83A161F-E3ED-4907-BA1F-1AEF84490076}">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>50</v>
+      </c>
+      <c r="H1">
+        <v>39.049999999999997</v>
+      </c>
+      <c r="I1">
+        <v>39.049999999999997</v>
+      </c>
+      <c r="J1">
+        <f>H1-I1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>43.43</v>
+      </c>
+      <c r="I2">
+        <v>43.43</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J14" si="0">H2-I2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>250</v>
+      </c>
+      <c r="H3">
+        <v>52</v>
+      </c>
+      <c r="I3">
+        <v>52</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>500</v>
+      </c>
+      <c r="H4">
+        <v>70.209999999999994</v>
+      </c>
+      <c r="I4">
+        <v>70.209999999999994</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>1000</v>
+      </c>
+      <c r="H5">
+        <v>96.58</v>
+      </c>
+      <c r="I5">
+        <v>96.58</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>1500</v>
+      </c>
+      <c r="H6">
+        <v>134.74</v>
+      </c>
+      <c r="I6">
+        <v>134.74</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>2000</v>
+      </c>
+      <c r="H7">
+        <v>164.54</v>
+      </c>
+      <c r="I7">
+        <v>164.54</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>2500</v>
+      </c>
+      <c r="H8">
+        <v>201.83</v>
+      </c>
+      <c r="I8">
+        <v>201.83</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>5000</v>
+      </c>
+      <c r="H9">
+        <v>384.65</v>
+      </c>
+      <c r="I9">
+        <v>384.65</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>6000</v>
+      </c>
+      <c r="H10">
+        <v>458.49</v>
+      </c>
+      <c r="I10">
+        <v>458.49</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>7000</v>
+      </c>
+      <c r="H11">
+        <v>532.33000000000004</v>
+      </c>
+      <c r="I11">
+        <v>532.33000000000004</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>8000</v>
+      </c>
+      <c r="H12">
+        <v>606.17999999999995</v>
+      </c>
+      <c r="I12">
+        <v>606.17999999999995</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>9000</v>
+      </c>
+      <c r="H13">
+        <v>680.03</v>
+      </c>
+      <c r="I13">
+        <v>680.03</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>10000</v>
+      </c>
+      <c r="H14">
+        <v>716.47</v>
+      </c>
+      <c r="I14">
+        <v>716.47</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <v>50</v>
+      </c>
+      <c r="H18">
+        <v>176.55</v>
+      </c>
+      <c r="I18">
+        <v>39.049999999999997</v>
+      </c>
+      <c r="J18">
+        <f>H18-I18</f>
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="H19">
+        <v>180.93</v>
+      </c>
+      <c r="I19">
+        <v>43.43</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ref="J19:J31" si="1">H19-I19</f>
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>250</v>
+      </c>
+      <c r="H20">
+        <v>189.5</v>
+      </c>
+      <c r="I20">
+        <v>52</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <v>500</v>
+      </c>
+      <c r="H21">
+        <v>207.71</v>
+      </c>
+      <c r="I21">
+        <v>70.209999999999994</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <v>1000</v>
+      </c>
+      <c r="H22">
+        <v>234.08</v>
+      </c>
+      <c r="I22">
+        <v>96.58</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>1500</v>
+      </c>
+      <c r="H23">
+        <v>272.24</v>
+      </c>
+      <c r="I23">
+        <v>134.74</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24">
+        <v>2000</v>
+      </c>
+      <c r="H24">
+        <v>302.04000000000002</v>
+      </c>
+      <c r="I24">
+        <v>164.54</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>137.50000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <v>2500</v>
+      </c>
+      <c r="H25">
+        <v>339.33</v>
+      </c>
+      <c r="I25">
+        <v>201.83</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>137.49999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26">
+        <v>5000</v>
+      </c>
+      <c r="H26">
+        <v>522.15</v>
+      </c>
+      <c r="I26">
+        <v>384.65</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27">
+        <v>6000</v>
+      </c>
+      <c r="H27">
+        <v>595.99</v>
+      </c>
+      <c r="I27">
+        <v>458.49</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28">
+        <v>7000</v>
+      </c>
+      <c r="H28">
+        <v>669.83</v>
+      </c>
+      <c r="I28">
+        <v>532.33000000000004</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29">
+        <v>8000</v>
+      </c>
+      <c r="H29">
+        <v>743.68</v>
+      </c>
+      <c r="I29">
+        <v>606.17999999999995</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30">
+        <v>9000</v>
+      </c>
+      <c r="H30">
+        <v>817.53</v>
+      </c>
+      <c r="I30">
+        <v>680.03</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31">
+        <v>10000</v>
+      </c>
+      <c r="H31">
+        <v>853.97</v>
+      </c>
+      <c r="I31">
+        <v>716.47</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>137.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/artwork.xlsx
+++ b/artwork.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\playwright-node-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82479F85-F199-4C77-A100-E8376B51CED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A33986-DF15-4D64-96F4-B2B25817622A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1500" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="9" xr2:uid="{220749C7-60A0-41AE-810A-5986427064FF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="17520" windowHeight="12600" firstSheet="5" activeTab="10" xr2:uid="{220749C7-60A0-41AE-810A-5986427064FF}"/>
   </bookViews>
   <sheets>
     <sheet name="artwork standard BC" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="linen BC" sheetId="8" r:id="rId8"/>
     <sheet name="fold over BC" sheetId="9" r:id="rId9"/>
     <sheet name="kraft BC" sheetId="10" r:id="rId10"/>
+    <sheet name="carbonless" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2499" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2811" uniqueCount="38">
   <si>
     <t>Front Side Only (4/0)</t>
   </si>
@@ -134,6 +135,30 @@
   </si>
   <si>
     <t>Card Stock: 18pt Brown Kraft</t>
+  </si>
+  <si>
+    <t>FRONT: Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BACK: None (B/0)</t>
+  </si>
+  <si>
+    <t>2 Part NCR (White</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Canary)</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shrinkwrap</t>
+  </si>
+  <si>
+    <t>We Typeset</t>
   </si>
 </sst>
 </file>
@@ -487,7 +512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E400822E-4AF5-4174-856E-F4498BA3F428}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C13" workbookViewId="0">
       <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
@@ -2023,7 +2048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D39235E-E6E7-414B-B756-4C75AB89B174}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -3668,6 +3693,1321 @@
       <c r="L48">
         <f t="shared" si="2"/>
         <v>83.999999999999943</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6577E4-E516-4692-BF08-A772DFACB997}">
+  <dimension ref="A1:Q27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1">
+        <v>250</v>
+      </c>
+      <c r="O1">
+        <v>89.5</v>
+      </c>
+      <c r="P1">
+        <v>89.5</v>
+      </c>
+      <c r="Q1">
+        <f>O1-P1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2">
+        <v>500</v>
+      </c>
+      <c r="O2">
+        <v>126.93</v>
+      </c>
+      <c r="P2">
+        <v>126.93</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" ref="Q2:Q12" si="0">O2-P2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3">
+        <v>1000</v>
+      </c>
+      <c r="O3">
+        <v>202.17</v>
+      </c>
+      <c r="P3">
+        <v>202.17</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4">
+        <v>1500</v>
+      </c>
+      <c r="O4">
+        <v>280.89999999999998</v>
+      </c>
+      <c r="P4">
+        <v>280.89999999999998</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5">
+        <v>2000</v>
+      </c>
+      <c r="O5">
+        <v>359.63</v>
+      </c>
+      <c r="P5">
+        <v>359.63</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6">
+        <v>2500</v>
+      </c>
+      <c r="O6">
+        <v>438.37</v>
+      </c>
+      <c r="P6">
+        <v>438.37</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7">
+        <v>5000</v>
+      </c>
+      <c r="O7">
+        <v>828.29</v>
+      </c>
+      <c r="P7">
+        <v>828.29</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8">
+        <v>6000</v>
+      </c>
+      <c r="O8">
+        <v>985</v>
+      </c>
+      <c r="P8">
+        <v>985</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9">
+        <v>7000</v>
+      </c>
+      <c r="O9">
+        <v>1136.49</v>
+      </c>
+      <c r="P9">
+        <v>1136.49</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10">
+        <v>8000</v>
+      </c>
+      <c r="O10">
+        <v>1292.45</v>
+      </c>
+      <c r="P10">
+        <v>1292.45</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11">
+        <v>9000</v>
+      </c>
+      <c r="O11">
+        <v>1448.41</v>
+      </c>
+      <c r="P11">
+        <v>1448.41</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12">
+        <v>10000</v>
+      </c>
+      <c r="O12">
+        <v>1604.39</v>
+      </c>
+      <c r="P12">
+        <v>1604.39</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16">
+        <v>250</v>
+      </c>
+      <c r="O16">
+        <v>138.5</v>
+      </c>
+      <c r="P16">
+        <v>89.5</v>
+      </c>
+      <c r="Q16">
+        <f>O16-P16</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17">
+        <v>500</v>
+      </c>
+      <c r="O17">
+        <v>175.93</v>
+      </c>
+      <c r="P17">
+        <v>126.93</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" ref="Q17:Q27" si="1">O17-P17</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" t="s">
+        <v>37</v>
+      </c>
+      <c r="L18" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18">
+        <v>1000</v>
+      </c>
+      <c r="O18">
+        <v>251.17</v>
+      </c>
+      <c r="P18">
+        <v>202.17</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19">
+        <v>1500</v>
+      </c>
+      <c r="O19">
+        <v>329.9</v>
+      </c>
+      <c r="P19">
+        <v>280.89999999999998</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" t="s">
+        <v>37</v>
+      </c>
+      <c r="L20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20">
+        <v>2000</v>
+      </c>
+      <c r="O20">
+        <v>408.63</v>
+      </c>
+      <c r="P20">
+        <v>359.63</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21" t="s">
+        <v>37</v>
+      </c>
+      <c r="L21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21">
+        <v>2500</v>
+      </c>
+      <c r="O21">
+        <v>487.37</v>
+      </c>
+      <c r="P21">
+        <v>438.37</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" t="s">
+        <v>37</v>
+      </c>
+      <c r="L22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22">
+        <v>5000</v>
+      </c>
+      <c r="O22">
+        <v>877.29</v>
+      </c>
+      <c r="P22">
+        <v>828.29</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" t="s">
+        <v>37</v>
+      </c>
+      <c r="L23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23">
+        <v>6000</v>
+      </c>
+      <c r="O23">
+        <v>1034</v>
+      </c>
+      <c r="P23">
+        <v>985</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24">
+        <v>7000</v>
+      </c>
+      <c r="O24">
+        <v>1185.49</v>
+      </c>
+      <c r="P24">
+        <v>1136.49</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" t="s">
+        <v>37</v>
+      </c>
+      <c r="L25" t="s">
+        <v>8</v>
+      </c>
+      <c r="M25" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25">
+        <v>8000</v>
+      </c>
+      <c r="O25">
+        <v>1341.45</v>
+      </c>
+      <c r="P25">
+        <v>1292.45</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" t="s">
+        <v>35</v>
+      </c>
+      <c r="J26" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26" t="s">
+        <v>37</v>
+      </c>
+      <c r="L26" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26">
+        <v>9000</v>
+      </c>
+      <c r="O26">
+        <v>1497.41</v>
+      </c>
+      <c r="P26">
+        <v>1448.41</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" t="s">
+        <v>37</v>
+      </c>
+      <c r="L27" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" t="s">
+        <v>23</v>
+      </c>
+      <c r="N27">
+        <v>10000</v>
+      </c>
+      <c r="O27">
+        <v>1653.39</v>
+      </c>
+      <c r="P27">
+        <v>1604.39</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
